--- a/xxxxx005_RPC/302_RPC_7_2_Authentication.xlsx
+++ b/xxxxx005_RPC/302_RPC_7_2_Authentication.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361AF18-47E2-4828-8FEE-95A6C399978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2316FBA-C9F4-415C-A33C-619503066119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
-    <sheet name="エラー番号一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="AUTH_FLAVOR" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">エラー番号一覧!$A$1:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AUTH_FLAVOR!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>意味</t>
     <rPh sb="0" eb="2">
@@ -73,41 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUTH_DES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADN_FULLNAME</t>
-  </si>
-  <si>
-    <t>ADN_NICKNAME</t>
-  </si>
-  <si>
-    <t>AUTHDES_NAMEKIND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Often calls must be made where the client does not know its identity  or the server does not care who the client is. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> The client may wish to identify itself as it is identified on a UNIX(tm) system. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DES のユーザ認証の仕組みを使う</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ認証の仕組みを使わない</t>
     <rPh sb="6" eb="8">
       <t>シク</t>
@@ -148,6 +113,34 @@
     <rPh sb="0" eb="1">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unix style (uid, gids)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Null authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short hand unix style</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -155,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +164,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,15 +211,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -228,11 +227,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -573,7 +572,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -581,7 +580,7 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -593,10 +592,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -607,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -621,63 +620,20 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>